--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1899.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1899.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.036717500102605</v>
+        <v>1.887828350067139</v>
       </c>
       <c r="B1">
-        <v>3.306998138242822</v>
+        <v>2.611997604370117</v>
       </c>
       <c r="C1">
-        <v>3.315793821544933</v>
+        <v>3.527505397796631</v>
       </c>
       <c r="D1">
-        <v>2.628543175622453</v>
+        <v>1.143050312995911</v>
       </c>
       <c r="E1">
-        <v>1.3161727023176</v>
+        <v>0.7340084910392761</v>
       </c>
     </row>
   </sheetData>
